--- a/Dataset/Sri-Lankan-Females-Sri-Lankan-Males.xlsx
+++ b/Dataset/Sri-Lankan-Females-Sri-Lankan-Males.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ML project\Dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Musharrat PC\Documents\B-med\Analysis\Gender wise\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B332B321-D5D8-46CC-857D-F50022C68182}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{D5BAE9A9-8823-415E-9997-73D0CFDBC27E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>PIN</t>
   </si>
@@ -73,11 +74,17 @@
   <si>
     <t>FI</t>
   </si>
+  <si>
+    <t>Sri Lankan Females</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lankan Males </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,12 +102,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,11 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
@@ -435,11 +449,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02347610-5E18-4DD0-9E55-AE2F2201E58F}">
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:T43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,40 +466,40 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -496,40 +510,40 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>18.2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>14.15</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>11.55</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>13.5</v>
       </c>
-      <c r="I2" s="3">
+      <c r="J2" s="3">
         <v>5.7</v>
       </c>
-      <c r="J2" s="3">
+      <c r="K2" s="3">
         <v>3.75</v>
       </c>
-      <c r="K2" s="3">
+      <c r="L2" s="3">
         <v>77.747252747252745</v>
       </c>
-      <c r="L2" s="3">
+      <c r="M2" s="3">
         <v>65.78947368421052</v>
       </c>
-      <c r="M2" s="3">
+      <c r="N2" s="3">
         <v>85.555555555555557</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -540,40 +554,40 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>18.350000000000001</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>13.2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>10.95</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>13.15</v>
       </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
       <c r="J3" s="3">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
         <v>3.5</v>
       </c>
-      <c r="K3" s="3">
+      <c r="L3" s="3">
         <v>71.934604904632138</v>
       </c>
-      <c r="L3" s="3">
+      <c r="M3" s="3">
         <v>70</v>
       </c>
-      <c r="M3" s="3">
+      <c r="N3" s="3">
         <v>83.269961977186298</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -584,40 +598,40 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>18.2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>13.2</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>12.65</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>13.45</v>
       </c>
-      <c r="I4" s="3">
+      <c r="J4" s="3">
         <v>6.35</v>
       </c>
-      <c r="J4" s="3">
+      <c r="K4" s="3">
         <v>3.45</v>
       </c>
-      <c r="K4" s="3">
+      <c r="L4" s="3">
         <v>72.527472527472526</v>
       </c>
-      <c r="L4" s="3">
+      <c r="M4" s="3">
         <v>54.330708661417326</v>
       </c>
-      <c r="M4" s="3">
+      <c r="N4" s="3">
         <v>94.05204460966543</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -628,40 +642,40 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>18.25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>15.15</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>12.3</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>12.65</v>
       </c>
-      <c r="I5" s="3">
+      <c r="J5" s="3">
         <v>5.35</v>
       </c>
-      <c r="J5" s="3">
+      <c r="K5" s="3">
         <v>3.2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="L5" s="3">
         <v>83.013698630136986</v>
       </c>
-      <c r="L5" s="3">
+      <c r="M5" s="3">
         <v>59.813084112149539</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>97.233201581027672</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -672,40 +686,40 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>13.15</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>10.4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>13.1</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>4.55</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>3</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>73.463687150837998</v>
       </c>
-      <c r="L6" s="3">
+      <c r="M6" s="3">
         <v>65.934065934065927</v>
       </c>
-      <c r="M6" s="3">
+      <c r="N6" s="3">
         <v>79.389312977099252</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -716,40 +730,40 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>16.05</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>13.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>9.75</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>12.95</v>
       </c>
-      <c r="I7" s="3">
+      <c r="J7" s="3">
         <v>4.3</v>
       </c>
-      <c r="J7" s="3">
-        <v>2</v>
-      </c>
       <c r="K7" s="3">
+        <v>2</v>
+      </c>
+      <c r="L7" s="3">
         <v>84.112149532710276</v>
       </c>
-      <c r="L7" s="3">
+      <c r="M7" s="3">
         <v>46.511627906976742</v>
       </c>
-      <c r="M7" s="3">
+      <c r="N7" s="3">
         <v>75.289575289575296</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -760,40 +774,40 @@
         <v>22</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>17</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>14.75</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>10.45</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>13.95</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3.45</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>86.764705882352942</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>74.193548387096769</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>74.910394265232966</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -804,40 +818,40 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>18.350000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>13.35</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>10.6</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>13.2</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3.15</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>72.752043596730246</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>64.285714285714278</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>80.303030303030312</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -848,43 +862,45 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>17.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>14.2</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>10.45</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>13.7</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4.5</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2.85</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>81.142857142857139</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>63.333333333333329</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>76.277372262773724</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
+      <c r="R10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -894,40 +910,40 @@
         <v>21</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>17.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>13.5</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>9.65</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>13.6</v>
       </c>
-      <c r="I11" s="3">
+      <c r="J11" s="3">
         <v>4.25</v>
       </c>
-      <c r="J11" s="3">
+      <c r="K11" s="3">
         <v>2.95</v>
       </c>
-      <c r="K11" s="3">
+      <c r="L11" s="3">
         <v>77.142857142857153</v>
       </c>
-      <c r="L11" s="3">
+      <c r="M11" s="3">
         <v>69.411764705882362</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="3">
         <v>70.955882352941174</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -938,40 +954,40 @@
         <v>18</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17.149999999999999</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12.85</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>9.5</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12.3</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4.25</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2.4</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>74.927113702623913</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>56.470588235294116</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>77.235772357723576</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -982,40 +998,40 @@
         <v>23</v>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>16.7</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>13.55</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>8.6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>12.55</v>
       </c>
-      <c r="I13" s="3">
+      <c r="J13" s="3">
         <v>3.5</v>
       </c>
-      <c r="J13" s="3">
+      <c r="K13" s="3">
         <v>2.57</v>
       </c>
-      <c r="K13" s="3">
+      <c r="L13" s="3">
         <v>81.137724550898213</v>
       </c>
-      <c r="L13" s="3">
+      <c r="M13" s="3">
         <v>73.428571428571416</v>
       </c>
-      <c r="M13" s="3">
+      <c r="N13" s="3">
         <v>68.525896414342625</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -1026,40 +1042,40 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="3">
         <v>17.95</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13.27</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>10.35</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13.75</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>4.25</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2.65</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>73.927576601671305</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>62.352941176470587</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>75.272727272727266</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1070,40 +1086,40 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>16.8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>14.4</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>12.95</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3.5</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2.5499999999999998</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>85.714285714285708</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>72.857142857142847</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>66.023166023166041</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1114,40 +1130,40 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>7</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>17.7</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <v>13.55</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <v>9.0500000000000007</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <v>13.03</v>
       </c>
-      <c r="I16" s="3">
+      <c r="J16" s="3">
         <v>3.85</v>
       </c>
-      <c r="J16" s="3">
+      <c r="K16" s="3">
         <v>3.3</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>76.553672316384194</v>
       </c>
-      <c r="L16" s="3">
+      <c r="M16" s="3">
         <v>85.714285714285708</v>
       </c>
-      <c r="M16" s="3">
+      <c r="N16" s="3">
         <v>69.455103607060636</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1158,40 +1174,40 @@
         <v>19</v>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
         <v>7</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>16.95</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>13.9</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>9.75</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>13.25</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3.9750000000000001</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2.7</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>82.005899705014755</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>67.924528301886795</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>73.584905660377359</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -1202,40 +1218,40 @@
         <v>20</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
         <v>7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17.350000000000001</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>14</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>9.5</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12.7</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3.5</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2.67</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>80.691642651296831</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>76.285714285714278</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>74.803149606299215</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -1246,40 +1262,40 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
         <v>7</v>
       </c>
-      <c r="E19" s="3">
+      <c r="F19" s="3">
         <v>17.3</v>
       </c>
-      <c r="F19" s="3">
+      <c r="G19" s="3">
         <v>14.57</v>
       </c>
-      <c r="G19" s="3">
+      <c r="H19" s="3">
         <v>9.93</v>
       </c>
-      <c r="H19" s="3">
+      <c r="I19" s="3">
         <v>12.93</v>
       </c>
-      <c r="I19" s="3">
+      <c r="J19" s="3">
         <v>3.9</v>
       </c>
-      <c r="J19" s="3">
+      <c r="K19" s="3">
         <v>2.65</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>84.219653179190743</v>
       </c>
-      <c r="L19" s="3">
+      <c r="M19" s="3">
         <v>67.948717948717956</v>
       </c>
-      <c r="M19" s="3">
+      <c r="N19" s="3">
         <v>76.798143851508115</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -1290,40 +1306,40 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
         <v>4</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>17.2</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13.95</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9.65</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>12.65</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>3.9</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2.85</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>81.104651162790702</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>73.07692307692308</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>76.284584980237156</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1334,40 +1350,40 @@
         <v>23</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>17.850000000000001</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>14.35</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9.6</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>12.95</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3.5</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2.85</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>80.392156862745097</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81.428571428571431</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>74.131274131274125</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -1378,790 +1394,836 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
         <v>7</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>18.45</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>13.53</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13.2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3.63</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3.15</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>73.333333333333329</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>86.776859504132233</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>73.484848484848484</v>
       </c>
-      <c r="N22">
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B23">
-        <v>19</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
-      </c>
-      <c r="D23">
-        <v>4</v>
-      </c>
-      <c r="E23" s="3">
-        <v>16.75</v>
-      </c>
-      <c r="F23" s="3">
-        <v>13.65</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="J26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="3">
-        <v>13.75</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="J23" s="3">
-        <v>3.5</v>
-      </c>
-      <c r="K23" s="3">
-        <v>81.492537313432834</v>
-      </c>
-      <c r="L23" s="3">
-        <v>66.037735849056617</v>
-      </c>
-      <c r="M23" s="3">
-        <v>87.272727272727266</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>30</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24">
-        <v>5</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-      <c r="E24" s="3">
-        <v>18.8</v>
-      </c>
-      <c r="F24" s="3">
-        <v>13.45</v>
-      </c>
-      <c r="G24" s="3">
-        <v>12</v>
-      </c>
-      <c r="H24" s="3">
-        <v>13.35</v>
-      </c>
-      <c r="I24" s="3">
-        <v>4.75</v>
-      </c>
-      <c r="J24" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="K24" s="3">
-        <v>71.542553191489361</v>
-      </c>
-      <c r="L24" s="3">
-        <v>67.368421052631575</v>
-      </c>
-      <c r="M24" s="3">
-        <v>89.887640449438194</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>35</v>
-      </c>
-      <c r="B25">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" s="3">
-        <v>18.649999999999999</v>
-      </c>
-      <c r="F25" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="G25" s="3">
-        <v>12.1</v>
-      </c>
-      <c r="H25" s="3">
-        <v>15.05</v>
-      </c>
-      <c r="I25" s="3">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="J25" s="3">
-        <v>3.8</v>
-      </c>
-      <c r="K25" s="4">
-        <v>77.747989276139421</v>
-      </c>
-      <c r="L25" s="3">
-        <v>78.350515463917532</v>
-      </c>
-      <c r="M25" s="3">
-        <v>80.39867109634551</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <v>19</v>
-      </c>
-      <c r="C26">
-        <v>5</v>
-      </c>
-      <c r="D26">
-        <v>4</v>
-      </c>
-      <c r="E26" s="3">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="F26" s="3">
-        <v>14.75</v>
-      </c>
-      <c r="G26" s="3">
-        <v>11.45</v>
-      </c>
-      <c r="H26" s="3">
-        <v>13.7</v>
-      </c>
-      <c r="I26" s="3">
-        <v>5.75</v>
-      </c>
-      <c r="J26" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="K26" s="3">
-        <v>78.042328042328052</v>
-      </c>
-      <c r="L26" s="3">
-        <v>62.608695652173921</v>
-      </c>
-      <c r="M26" s="3">
-        <v>83.576642335766422</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
+      <c r="N26" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B27">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="E27">
         <v>4</v>
       </c>
-      <c r="E27" s="3">
-        <v>18.850000000000001</v>
-      </c>
       <c r="F27" s="3">
-        <v>14.75</v>
+        <v>16.75</v>
       </c>
       <c r="G27" s="3">
-        <v>11.75</v>
+        <v>13.65</v>
       </c>
       <c r="H27" s="3">
-        <v>14.2</v>
+        <v>12</v>
       </c>
       <c r="I27" s="3">
-        <v>5.05</v>
+        <v>13.75</v>
       </c>
       <c r="J27" s="3">
-        <v>3.55</v>
+        <v>5.3</v>
       </c>
       <c r="K27" s="3">
-        <v>78.249336870026525</v>
+        <v>3.5</v>
       </c>
       <c r="L27" s="3">
-        <v>70.297029702970292</v>
+        <v>81.492537313432834</v>
       </c>
       <c r="M27" s="3">
-        <v>82.74647887323944</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
+        <v>66.037735849056617</v>
+      </c>
+      <c r="N27" s="3">
+        <v>87.272727272727266</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3">
-        <v>18.149999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>7</v>
       </c>
       <c r="F28" s="3">
-        <v>14.1</v>
+        <v>18.8</v>
       </c>
       <c r="G28" s="3">
-        <v>10.65</v>
+        <v>13.45</v>
       </c>
       <c r="H28" s="3">
-        <v>14.15</v>
+        <v>12</v>
       </c>
       <c r="I28" s="3">
-        <v>4.05</v>
+        <v>13.35</v>
       </c>
       <c r="J28" s="3">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="K28" s="3">
-        <v>77.685950413223154</v>
+        <v>3.2</v>
       </c>
       <c r="L28" s="3">
-        <v>74.074074074074076</v>
+        <v>71.542553191489361</v>
       </c>
       <c r="M28" s="3">
-        <v>75.265017667844518</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
+        <v>67.368421052631575</v>
+      </c>
+      <c r="N28" s="3">
+        <v>89.887640449438194</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3">
-        <v>17.350000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
       </c>
       <c r="F29" s="3">
-        <v>14.35</v>
+        <v>18.649999999999999</v>
       </c>
       <c r="G29" s="3">
-        <v>10.55</v>
+        <v>14.5</v>
       </c>
       <c r="H29" s="3">
-        <v>14.3</v>
+        <v>12.1</v>
       </c>
       <c r="I29" s="3">
-        <v>4.3499999999999996</v>
+        <v>15.05</v>
       </c>
       <c r="J29" s="3">
-        <v>3.1</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="K29" s="3">
-        <v>82.708933717579242</v>
-      </c>
-      <c r="L29" s="3">
-        <v>71.264367816091962</v>
+        <v>3.8</v>
+      </c>
+      <c r="L29" s="5">
+        <v>77.747989276139421</v>
       </c>
       <c r="M29" s="3">
-        <v>73.776223776223787</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
+        <v>78.350515463917532</v>
+      </c>
+      <c r="N29" s="3">
+        <v>80.39867109634551</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>7</v>
-      </c>
-      <c r="E30" s="3">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
       </c>
       <c r="F30" s="3">
-        <v>15</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="G30" s="3">
-        <v>12</v>
+        <v>14.75</v>
       </c>
       <c r="H30" s="3">
-        <v>13.75</v>
+        <v>11.45</v>
       </c>
       <c r="I30" s="3">
-        <v>4.9000000000000004</v>
+        <v>13.7</v>
       </c>
       <c r="J30" s="3">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="K30" s="3">
-        <v>75</v>
+        <v>3.6</v>
       </c>
       <c r="L30" s="3">
-        <v>66.326530612244895</v>
+        <v>78.042328042328052</v>
       </c>
       <c r="M30" s="3">
-        <v>87.272727272727266</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
+        <v>62.608695652173921</v>
+      </c>
+      <c r="N30" s="3">
+        <v>83.576642335766422</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B31">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
         <v>4</v>
       </c>
-      <c r="E31" s="3">
-        <v>18.05</v>
-      </c>
       <c r="F31" s="3">
-        <v>14.65</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G31" s="3">
-        <v>10.5</v>
+        <v>14.75</v>
       </c>
       <c r="H31" s="3">
-        <v>14.3</v>
+        <v>11.75</v>
       </c>
       <c r="I31" s="3">
-        <v>4.55</v>
+        <v>14.2</v>
       </c>
       <c r="J31" s="3">
-        <v>2.9</v>
+        <v>5.05</v>
       </c>
       <c r="K31" s="3">
-        <v>81.16343490304709</v>
+        <v>3.55</v>
       </c>
       <c r="L31" s="3">
-        <v>63.73626373626373</v>
+        <v>78.249336870026525</v>
       </c>
       <c r="M31" s="3">
-        <v>73.426573426573427</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
+        <v>70.297029702970292</v>
+      </c>
+      <c r="N31" s="3">
+        <v>82.74647887323944</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B32">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>7</v>
-      </c>
-      <c r="E32" s="3">
-        <v>17.8</v>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
       </c>
       <c r="F32" s="3">
-        <v>12.65</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="G32" s="3">
-        <v>10.55</v>
+        <v>14.1</v>
       </c>
       <c r="H32" s="3">
-        <v>13.75</v>
+        <v>10.65</v>
       </c>
       <c r="I32" s="3">
-        <v>4.0999999999999996</v>
+        <v>14.15</v>
       </c>
       <c r="J32" s="3">
-        <v>2.85</v>
+        <v>4.05</v>
       </c>
       <c r="K32" s="3">
-        <v>71.067415730337075</v>
+        <v>3</v>
       </c>
       <c r="L32" s="3">
-        <v>69.512195121951223</v>
+        <v>77.685950413223154</v>
       </c>
       <c r="M32" s="3">
-        <v>76.727272727272734</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
+        <v>74.074074074074076</v>
+      </c>
+      <c r="N32" s="3">
+        <v>75.265017667844518</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B33">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>7</v>
-      </c>
-      <c r="E33" s="3">
-        <v>18.95</v>
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
       </c>
       <c r="F33" s="3">
-        <v>14.25</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="G33" s="3">
-        <v>11.25</v>
+        <v>14.35</v>
       </c>
       <c r="H33" s="3">
-        <v>13.85</v>
+        <v>10.55</v>
       </c>
       <c r="I33" s="3">
-        <v>4.5999999999999996</v>
+        <v>14.3</v>
       </c>
       <c r="J33" s="3">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="K33" s="3">
         <v>3.1</v>
       </c>
-      <c r="K33" s="3">
-        <v>75.197889182058049</v>
-      </c>
       <c r="L33" s="3">
-        <v>67.391304347826093</v>
+        <v>82.708933717579242</v>
       </c>
       <c r="M33" s="3">
-        <v>81.227436823104696</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
+        <v>71.264367816091962</v>
+      </c>
+      <c r="N33" s="3">
+        <v>73.776223776223787</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B34">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" s="3">
-        <v>18.850000000000001</v>
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
       </c>
       <c r="F34" s="3">
-        <v>13.7</v>
+        <v>20</v>
       </c>
       <c r="G34" s="3">
-        <v>10.050000000000001</v>
+        <v>15</v>
       </c>
       <c r="H34" s="3">
-        <v>13.6</v>
+        <v>12</v>
       </c>
       <c r="I34" s="3">
-        <v>4.3499999999999996</v>
+        <v>13.75</v>
       </c>
       <c r="J34" s="3">
-        <v>2.75</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="K34" s="3">
-        <v>72.679045092838194</v>
+        <v>3.25</v>
       </c>
       <c r="L34" s="3">
-        <v>63.218390804597703</v>
+        <v>75</v>
       </c>
       <c r="M34" s="3">
-        <v>73.89705882352942</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
+        <v>66.326530612244895</v>
+      </c>
+      <c r="N34" s="3">
+        <v>87.272727272727266</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R34" s="4"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>7</v>
-      </c>
-      <c r="E35" s="3">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
+      </c>
+      <c r="F35" s="3">
         <v>18.05</v>
       </c>
-      <c r="F35" s="3">
-        <v>13.65</v>
-      </c>
       <c r="G35" s="3">
-        <v>11.6</v>
+        <v>14.65</v>
       </c>
       <c r="H35" s="3">
-        <v>12.45</v>
+        <v>10.5</v>
       </c>
       <c r="I35" s="3">
-        <v>5.2</v>
+        <v>14.3</v>
       </c>
       <c r="J35" s="3">
-        <v>3.1</v>
+        <v>4.55</v>
       </c>
       <c r="K35" s="3">
-        <v>75.62326869806094</v>
+        <v>2.9</v>
       </c>
       <c r="L35" s="3">
-        <v>59.615384615384613</v>
+        <v>81.16343490304709</v>
       </c>
       <c r="M35" s="3">
-        <v>93.172690763052216</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
+        <v>63.73626373626373</v>
+      </c>
+      <c r="N35" s="3">
+        <v>73.426573426573427</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="B36">
         <v>21</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
         <v>7</v>
       </c>
-      <c r="E36" s="3">
-        <v>18.97</v>
-      </c>
       <c r="F36" s="3">
-        <v>15.15</v>
+        <v>17.8</v>
       </c>
       <c r="G36" s="3">
-        <v>10.6</v>
+        <v>12.65</v>
       </c>
       <c r="H36" s="3">
-        <v>14.05</v>
+        <v>10.55</v>
       </c>
       <c r="I36" s="3">
-        <v>3.95</v>
+        <v>13.75</v>
       </c>
       <c r="J36" s="3">
-        <v>3.43</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="K36" s="3">
-        <v>79.86294148655773</v>
+        <v>2.85</v>
       </c>
       <c r="L36" s="3">
-        <v>86.835443037974684</v>
+        <v>71.067415730337075</v>
       </c>
       <c r="M36" s="3">
-        <v>75.444839857651232</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
+        <v>69.512195121951223</v>
+      </c>
+      <c r="N36" s="3">
+        <v>76.727272727272734</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>4</v>
-      </c>
-      <c r="E37" s="3">
-        <v>18.05</v>
-      </c>
-      <c r="F37" s="5">
-        <v>14.85</v>
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37" s="3">
+        <v>18.95</v>
       </c>
       <c r="G37" s="3">
-        <v>10.5</v>
+        <v>14.25</v>
       </c>
       <c r="H37" s="3">
-        <v>14.05</v>
+        <v>11.25</v>
       </c>
       <c r="I37" s="3">
-        <v>4</v>
+        <v>13.85</v>
       </c>
       <c r="J37" s="3">
-        <v>3.17</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="K37" s="3">
-        <v>82.27146814404432</v>
+        <v>3.1</v>
       </c>
       <c r="L37" s="3">
-        <v>79.25</v>
+        <v>75.197889182058049</v>
       </c>
       <c r="M37" s="3">
-        <v>74.733096085409244</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
+        <v>67.391304347826093</v>
+      </c>
+      <c r="N37" s="3">
+        <v>81.227436823104696</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>19</v>
       </c>
       <c r="C38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>7</v>
-      </c>
-      <c r="E38" s="3">
-        <v>19.399999999999999</v>
+        <v>5</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
       </c>
       <c r="F38" s="3">
-        <v>14.85</v>
+        <v>18.850000000000001</v>
       </c>
       <c r="G38" s="3">
-        <v>10.8</v>
+        <v>13.7</v>
       </c>
       <c r="H38" s="3">
-        <v>13.85</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="I38" s="3">
-        <v>4.1500000000000004</v>
+        <v>13.6</v>
       </c>
       <c r="J38" s="3">
-        <v>3.1</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="K38" s="3">
-        <v>76.546391752577321</v>
+        <v>2.75</v>
       </c>
       <c r="L38" s="3">
-        <v>74.698795180722882</v>
+        <v>72.679045092838194</v>
       </c>
       <c r="M38" s="3">
-        <v>77.978339350180519</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
+        <v>63.218390804597703</v>
+      </c>
+      <c r="N38" s="3">
+        <v>73.89705882352942</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
+        <v>77</v>
+      </c>
+      <c r="B39">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>7</v>
+      </c>
+      <c r="F39" s="3">
+        <v>18.05</v>
+      </c>
+      <c r="G39" s="3">
+        <v>13.65</v>
+      </c>
+      <c r="H39" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="I39" s="3">
+        <v>12.45</v>
+      </c>
+      <c r="J39" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="K39" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>75.62326869806094</v>
+      </c>
+      <c r="M39" s="3">
+        <v>59.615384615384613</v>
+      </c>
+      <c r="N39" s="3">
+        <v>93.172690763052216</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>142</v>
+      </c>
+      <c r="B40">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>7</v>
+      </c>
+      <c r="F40" s="3">
+        <v>18.97</v>
+      </c>
+      <c r="G40" s="3">
+        <v>15.15</v>
+      </c>
+      <c r="H40" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="I40" s="3">
+        <v>14.05</v>
+      </c>
+      <c r="J40" s="3">
+        <v>3.95</v>
+      </c>
+      <c r="K40" s="3">
+        <v>3.43</v>
+      </c>
+      <c r="L40" s="3">
+        <v>79.86294148655773</v>
+      </c>
+      <c r="M40" s="3">
+        <v>86.835443037974684</v>
+      </c>
+      <c r="N40" s="3">
+        <v>75.444839857651232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>143</v>
+      </c>
+      <c r="B41">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41" s="3">
+        <v>18.05</v>
+      </c>
+      <c r="G41" s="6">
+        <v>14.85</v>
+      </c>
+      <c r="H41" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="I41" s="3">
+        <v>14.05</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3">
+        <v>3.17</v>
+      </c>
+      <c r="L41" s="3">
+        <v>82.27146814404432</v>
+      </c>
+      <c r="M41" s="3">
+        <v>79.25</v>
+      </c>
+      <c r="N41" s="3">
+        <v>74.733096085409244</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>212</v>
+      </c>
+      <c r="B42">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G42" s="3">
+        <v>14.85</v>
+      </c>
+      <c r="H42" s="3">
+        <v>10.8</v>
+      </c>
+      <c r="I42" s="3">
+        <v>13.85</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K42" s="3">
+        <v>3.1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>76.546391752577321</v>
+      </c>
+      <c r="M42" s="3">
+        <v>74.698795180722882</v>
+      </c>
+      <c r="N42" s="3">
+        <v>77.978339350180519</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>255</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <v>22</v>
       </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
         <v>7</v>
       </c>
-      <c r="E39" s="3">
+      <c r="F43" s="3">
         <v>18.55</v>
       </c>
-      <c r="F39" s="3">
+      <c r="G43" s="3">
         <v>14.85</v>
       </c>
-      <c r="G39" s="3">
+      <c r="H43" s="3">
         <v>11.6</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I43" s="3">
         <v>13.9</v>
       </c>
-      <c r="I39" s="3">
+      <c r="J43" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J39" s="3">
+      <c r="K43" s="3">
         <v>3.05</v>
       </c>
-      <c r="K39" s="3">
+      <c r="L43" s="3">
         <v>80.053908355795144</v>
       </c>
-      <c r="L39" s="3">
+      <c r="M43" s="3">
         <v>66.304347826086968</v>
       </c>
-      <c r="M39" s="3">
+      <c r="N43" s="3">
         <v>83.453237410071935</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
